--- a/RateList.xlsx
+++ b/RateList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\MobileApp\inventoryMgmt\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0140343-89F3-4F21-AB58-601DD1A45586}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15F75D4-1B5A-40A5-BE01-0C9D129AD1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cosmetics" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Item Number</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Charcoal Mask Cream</t>
+  </si>
+  <si>
+    <t>P5C</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,6 +471,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="1">
         <v>6941716305925</v>
       </c>

--- a/RateList.xlsx
+++ b/RateList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15F75D4-1B5A-40A5-BE01-0C9D129AD1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3754654-2CA4-45D5-9735-CFD34D128E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Item Number</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Charcoal Mask Cream</t>
   </si>
   <si>
-    <t>P5C</t>
+    <t>A1516</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +79,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +431,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>144</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -471,9 +492,6 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
       <c r="B3" s="1">
         <v>6941716305925</v>
       </c>
